--- a/导表工具/D-巅峰赛季.xlsx
+++ b/导表工具/D-巅峰赛季.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
   <si>
     <t>导出类型</t>
   </si>
@@ -617,13 +617,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +703,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -711,6 +733,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -719,50 +772,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0070C0"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,20 +800,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -798,6 +808,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -806,17 +831,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,29 +853,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -876,6 +876,17 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -940,13 +951,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,168 +1132,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,18 +1212,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,6 +1260,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1271,28 +1290,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,148 +1313,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1985,7 +1996,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2090,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="33"/>
     </row>
